--- a/003__shift_planning/src/main/resources/tables.xlsx
+++ b/003__shift_planning/src/main/resources/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\portafolio\003__shift_planning\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA1D87-7C53-44E6-9332-8196EFDA7127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414E8B3-7145-401D-9084-F93884037F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>work_time</t>
   </si>
@@ -77,12 +77,6 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>enfermeria</t>
-  </si>
-  <si>
-    <t>urgencias</t>
-  </si>
-  <si>
     <t>workplace_name</t>
   </si>
   <si>
@@ -99,12 +93,36 @@
   </si>
   <si>
     <t>2022-08-01,2022-08-02,2022-08-03,2022-08-04,2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>nursing</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,15 +164,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,16 +529,19 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -527,10 +552,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>44778</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -538,10 +563,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>44779</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -552,7 +577,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD508A-1BDA-4D9F-9F18-41913F4B9E03}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -563,28 +588,37 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +631,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,27 +643,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -637,13 +671,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -651,13 +685,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -665,13 +699,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/003__shift_planning/src/main/resources/tables.xlsx
+++ b/003__shift_planning/src/main/resources/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\portafolio\003__shift_planning\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBD830-20F1-4256-B56E-FB7A1F28EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E1DA9-2753-4FC2-ABFE-BFB3B85E9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -486,8 +490,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>48*4</f>
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,8 +498,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B6" si="0">48*4</f>
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,8 +506,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,8 +514,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,8 +522,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -537,11 +536,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
